--- a/mySystem/mySystem/xls/LDPE/8 SOP-MFG-110-R01A 清场记录.xlsx
+++ b/mySystem/mySystem/xls/LDPE/8 SOP-MFG-110-R01A 清场记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <r>
       <rPr>
@@ -26,463 +26,186 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>批生产记录填写完整，并归档</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t>备注：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>销毁剩余标签；若本批未结束，剩余标签计数交专人保管</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t>序号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>产品</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t>清场项目</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>中间品</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t>清场要点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>原辅材料</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t>清洁操作</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>核实本批用情况，清除下批不用的原辅材料</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t>检查结果</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>废料</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t>颇尔奥星包装科技（北京）有限责任公司</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
         <color theme="1"/>
         <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>清除本批产生的废料，称重并记录</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工艺文件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>清除下批不用工艺文件、记录等</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标签</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产设备</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认设备状态，清洁设备表面，按程序关机，并切断电源</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产现场</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>清除废弃物、废料</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>现场卫生清洁，包括设备、桌子、推车、工器具、记录夹等；
-并且卫生工具得到清洁并定置摆放</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工器具清点齐全，定置摆放；桌子、推车定置摆放</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>清洁传递窗，并关闭</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>叉车停放在指定区域</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关好车间灯、门</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>备注：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>序号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>清场项目</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>清场要点</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>清洁操作</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检查结果</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>完成□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t xml:space="preserve">清场记录
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t>Clearance Record of Welding Process</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP-MFG-110-R01A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>不适用□</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t>生产日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>合格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>不合格□</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>颇尔奥星包装科技（北京）有限责任公司</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">清场记录
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
+      <t>日
+生产班次：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Clearance Record of Welding Process</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOP-MFG-110-R01A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -491,17 +214,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>生产日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
+      <t>白班□</t>
     </r>
     <r>
       <rPr>
@@ -510,7 +223,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">    </t>
+      <t xml:space="preserve">   </t>
     </r>
     <r>
       <rPr>
@@ -520,64 +233,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日
-生产班次：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白班□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>夜班□</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -619,15 +274,6 @@
   </si>
   <si>
     <t>产品批号：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品定置摆放、清晰标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余膜材称重、标识、定置摆；
-若在下批使用，称重后下批领用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -927,7 +573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,12 +634,54 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1003,46 +691,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1351,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1371,7 +1023,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1381,336 +1033,253 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="3" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="A2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="18" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
+        <v>14</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="12" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="22"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
-        <v>2</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="22"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
-        <v>3</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="22"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
-        <v>4</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="22"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20">
-        <v>3</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="21" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="39"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="40"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="40"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="40"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="40"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="40"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="36"/>
+    </row>
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="40"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="36"/>
+    </row>
+    <row r="19" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
-        <v>4</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
-        <v>5</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20">
-        <v>6</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="22"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="23"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="23">
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
@@ -1727,15 +1296,6 @@
     <mergeCell ref="A19:F20"/>
     <mergeCell ref="I5:I20"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/LDPE/8 SOP-MFG-110-R01A 清场记录.xlsx
+++ b/mySystem/mySystem/xls/LDPE/8 SOP-MFG-110-R01A 清场记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <r>
       <rPr>
@@ -138,106 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日
-生产班次：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白班□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>夜班□</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>操作人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,35 +146,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生产指令编号：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品代码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品批号：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>生产指令编号：B-PEF-2018-108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品代码：PEF-BN-600X950X100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品批号：2018072611</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产日期：2018年08月17日
+生产班次： 白班☑   夜班□</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
   </si>
 </sst>
 </file>
@@ -637,15 +526,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -687,15 +585,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1037,36 +926,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
@@ -1075,11 +964,11 @@
       <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
@@ -1087,197 +976,198 @@
         <v>5</v>
       </c>
       <c r="H4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="36"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="36"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="36"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="39"/>
     </row>
     <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="36"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="36"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="39"/>
     </row>
     <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="36"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="36"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="36"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="40"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="20"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="36"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="39"/>
     </row>
     <row r="14" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="40"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="20"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="36"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="39"/>
     </row>
     <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="40"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="20"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="36"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="39"/>
     </row>
     <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="40"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="20"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="36"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="20"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="36"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="36"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="37"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="I5:I20"/>
+    <mergeCell ref="C15:E15"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="A2:I2"/>
@@ -1294,8 +1184,11 @@
     <mergeCell ref="H5:H20"/>
     <mergeCell ref="G5:G20"/>
     <mergeCell ref="A19:F20"/>
-    <mergeCell ref="I5:I20"/>
-    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
